--- a/Management/February/Goals__2019-02-14.xlsx
+++ b/Management/February/Goals__2019-02-14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\Desktop\personalorganizer\Management\February\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93223D67-B7CD-4353-9AE7-51DE23C442E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB56B9-21EA-42FA-8B14-98CE9C14995E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{CEE3A32A-61E3-4370-B360-633055FD95DF}"/>
   </bookViews>
@@ -31,53 +31,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Effort</t>
-  </si>
-  <si>
-    <t>Remain</t>
-  </si>
-  <si>
     <t>Responsible</t>
   </si>
   <si>
-    <t>Current Estimation</t>
-  </si>
-  <si>
-    <t>Original Estimation</t>
-  </si>
-  <si>
-    <t>Input through phone</t>
-  </si>
-  <si>
-    <t>Display (without functions)</t>
-  </si>
-  <si>
-    <t>Display (with basic functions)</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>Blaha Simon</t>
-  </si>
-  <si>
-    <t>Hosic Tarik</t>
-  </si>
-  <si>
-    <t>Haag Johann</t>
+    <t>Funktionierende GET anfragen + Einrichten einer Datenbank</t>
+  </si>
+  <si>
+    <t>Termine editieren</t>
+  </si>
+  <si>
+    <t>Termine speichern (Datum, Uhrzeit, Terminname)</t>
+  </si>
+  <si>
+    <t>Termine anzeigen (Ohne Funktionen)</t>
+  </si>
+  <si>
+    <t>Termine anzeigen (mit Funktionen)</t>
+  </si>
+  <si>
+    <t>Erstellen einer Termines (Anzeige)</t>
+  </si>
+  <si>
+    <t>Current Estimation (in hours)</t>
+  </si>
+  <si>
+    <t>Effort (in hours)</t>
+  </si>
+  <si>
+    <t>Remain (in hours)</t>
+  </si>
+  <si>
+    <t>Original Estimation (in hours)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,74 +427,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1781DED3-6E4F-41A9-A4E8-E4B0C26B7D1E}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>C7-B7</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Management/February/Goals__2019-02-14.xlsx
+++ b/Management/February/Goals__2019-02-14.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\Desktop\personalorganizer\Management\February\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarik\Desktop\project-proposal-blaha_haag_hosic\Management\February\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFB56B9-21EA-42FA-8B14-98CE9C14995E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59CD621-029B-46A7-A8B5-E670E16E6EC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5568" xr2:uid="{CEE3A32A-61E3-4370-B360-633055FD95DF}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D7" si="0">C2-B2</f>
         <v>0</v>
       </c>
       <c r="E2">
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
@@ -528,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
